--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +588,57 @@
         <v>45886</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Client3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tech Lead</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPP000002</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45886</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed6vv4HJeFFEt5UfqLXvB2YBrpgT7fxAcLTvf_fHU1zRyA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" s="3" t="n">
+        <v>45886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -577,7 +574,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -604,7 +601,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>45886</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -632,10 +629,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>45886</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -578,7 +581,8 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[John Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw)</t>
+          <t>[John Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw)
+[Jane Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdUhHwVeOQlFlxbDddMIaIQB8hcInFY_F0yN2J1me4SGBw)</t>
         </is>
       </c>
       <c r="O2" s="2" t="n">
@@ -601,7 +605,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45886</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -632,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45886</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1,42 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F268381-AB20-6647-B4DD-C6068363B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Client name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Opp ID</t>
+  </si>
+  <si>
+    <t>Date received</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>Job Location</t>
+  </si>
+  <si>
+    <t>Exp bracket</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Expected notice period</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Special comments</t>
+  </si>
+  <si>
+    <t>Deal Status</t>
+  </si>
+  <si>
+    <t>Number of candidates shared</t>
+  </si>
+  <si>
+    <t>Name of candidates shared</t>
+  </si>
+  <si>
+    <t>Closed on</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +107,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,218 +433,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Client name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Opp ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date received</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>JD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Job Location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Exp bracket</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Budget</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Expected notice period</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Special comments</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Deal Status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Number of candidates shared</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Name of candidates shared</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Closed on</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Client1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Analyst</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OPP000001</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EbZnCapNErZDja37JRGCKEEBNdkQOEXR8KBjZgwSppKh-A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12L</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10L</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2months</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>First Requirements</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[John Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw)
-[Jane Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdUhHwVeOQlFlxbDddMIaIQB8hcInFY_F0yN2J1me4SGBw)</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45886</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Client3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tech Lead</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OPP000002</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>45886</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed6vv4HJeFFEt5UfqLXvB2YBrpgT7fxAcLTvf_fHU1zRyA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Indore</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
-        <v>45886</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1,98 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F268381-AB20-6647-B4DD-C6068363B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Client name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Opp ID</t>
-  </si>
-  <si>
-    <t>Date received</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>Job Location</t>
-  </si>
-  <si>
-    <t>Exp bracket</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Expected notice period</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Special comments</t>
-  </si>
-  <si>
-    <t>Deal Status</t>
-  </si>
-  <si>
-    <t>Number of candidates shared</t>
-  </si>
-  <si>
-    <t>Name of candidates shared</t>
-  </si>
-  <si>
-    <t>Closed on</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,45 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,72 +424,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Client name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Opp ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date received</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Job Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Exp bracket</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Expected notice period</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Special comments</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Deal Status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Number of candidates shared</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Name of candidates shared</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Closed on</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Client2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OPP000001</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45886</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQs1XBYKmH1Mtl6UNCxMgyoBrxcj7DB1ECLVP2huU_PbkA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Blr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>wow</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" s="2" t="n">
+        <v>45886</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -543,9 +543,21 @@
           <t>Blr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>High</t>
@@ -564,7 +576,11 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[John Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw)</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n">
         <v>45886</v>
       </c>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,21 +546,9 @@
           <t>Blr</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>High</t>
@@ -582,6 +573,65 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LnT Cloud</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Presales</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPP000002</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45880</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EbpFdaC9K1JLncWuDyEpZugBdjKvJdaLzW_n8artHbW5zw</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8-12 years</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" s="3" t="n">
         <v>45886</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1,42 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DBBD0-77EC-5145-ACBF-7448DEF0E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Client name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Opp ID</t>
+  </si>
+  <si>
+    <t>Date received</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>Job Location</t>
+  </si>
+  <si>
+    <t>Exp bracket</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Expected notice period</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Special comments</t>
+  </si>
+  <si>
+    <t>Deal Status</t>
+  </si>
+  <si>
+    <t>Number of candidates shared</t>
+  </si>
+  <si>
+    <t>Name of candidates shared</t>
+  </si>
+  <si>
+    <t>Closed on</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +107,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,213 +433,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Client name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Opp ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date received</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>JD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Job Location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Exp bracket</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Budget</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Expected notice period</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Special comments</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Deal Status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Number of candidates shared</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Name of candidates shared</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Closed on</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Client2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Analyst</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OPP000001</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45886</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQs1XBYKmH1Mtl6UNCxMgyoBrxcj7DB1ECLVP2huU_PbkA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Blr</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>wow</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[John Doe_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESRvotbufMNPvnVMkhoqzdcBLKcItydMuNHg4QsMyG5xBw)</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45886</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LnT Cloud</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Presales</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OPP000002</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>45880</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EbpFdaC9K1JLncWuDyEpZugBdjKvJdaLzW_n8artHbW5zw</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8-12 years</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30 days</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
-        <v>45886</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1,98 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advaitrai/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DBBD0-77EC-5145-ACBF-7448DEF0E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Client name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Opp ID</t>
-  </si>
-  <si>
-    <t>Date received</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>Job Location</t>
-  </si>
-  <si>
-    <t>Exp bracket</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Expected notice period</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Special comments</t>
-  </si>
-  <si>
-    <t>Deal Status</t>
-  </si>
-  <si>
-    <t>Number of candidates shared</t>
-  </si>
-  <si>
-    <t>Name of candidates shared</t>
-  </si>
-  <si>
-    <t>Closed on</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -107,45 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,69 +424,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Client name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Opp ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date received</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Job Location</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Exp bracket</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Expected notice period</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Special comments</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Deal Status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Number of candidates shared</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Name of candidates shared</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Closed on</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LnT Cloud</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Presales architect Cloud</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OPP000001</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>immediate</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" s="2" t="n">
+        <v>45887</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -543,8 +543,16 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>immediate</t>
@@ -555,7 +563,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -564,7 +576,11 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[Prachi Kakade_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg)</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n">
         <v>45887</v>
       </c>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,16 +546,8 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>immediate</t>
@@ -563,11 +558,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -582,6 +573,69 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PS-GCC_Delivery_SA_IaC_DevSecOps_EMS_Obserability</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPP000002</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETQcLr4OS69Pl_YufBpUnYwBX7Qbuf4TpN-Cm4zttyJASQ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10-15 years</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +592,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -635,7 +635,70 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OPP000003</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed3sRB-IX9NKpEqnyqKfd7cBztU75KJCNRdJHHOCf8aAgg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10-15 years</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3L</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -565,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -655,7 +652,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -695,10 +692,10 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,8 +546,16 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>immediate</t>
@@ -555,7 +566,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -566,7 +581,8 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[Prachi Kakade_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg)</t>
+          <t>[Prachi Kakade_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg)
+[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)</t>
         </is>
       </c>
       <c r="O2" s="2" t="n">
@@ -589,7 +605,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -632,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -652,7 +668,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -695,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,16 +546,8 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>immediate</t>
@@ -566,11 +558,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -605,7 +593,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -648,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -668,7 +656,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,7 +699,62 @@
         <v>1</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cloud Native &amp; App Security</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OPP000004</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ES4YKLxqIgxBpTnNEPtwEwIB_MhBrwOvgjNNy99bSlXF3A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>immediate - 30 days</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -719,7 +716,7 @@
           <t>OPP000004</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -751,10 +748,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -716,7 +719,7 @@
           <t>OPP000004</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -729,8 +732,16 @@
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>immediate - 30 days</t>
@@ -741,7 +752,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -750,8 +765,12 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" s="2" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +719,7 @@
           <t>OPP000004</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -732,16 +732,8 @@
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>immediate - 30 days</t>
@@ -752,11 +744,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -770,7 +758,66 @@
           <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPP000005</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-5 years</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -778,7 +775,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -814,10 +811,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,6 +821,69 @@
         <v>45887</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cloud Native  Security Consultant </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OPP000006</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10-15 yrs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" s="3" t="n">
+        <v>45889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -520,12 +520,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LnT Cloud</t>
+          <t>KPMG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Presales architect Cloud</t>
+          <t>hybrid cloud architect</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -546,8 +546,16 @@
           <t>Mumbai</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>immediate</t>
@@ -558,7 +566,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
@@ -593,7 +605,7 @@
           <t>OPP000002</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -636,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -656,7 +668,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -699,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -719,7 +731,7 @@
           <t>OPP000004</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -758,7 +770,7 @@
           <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
         </is>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -778,7 +790,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -817,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -577,12 +577,15 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>[Prachi Kakade_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg)
-[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)</t>
+[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)
+[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)
+[Suresh B. Lalge_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERSPM05I_yBOs0LGEV4FP3QBa5ZarTpN9RWCnTUs2oboIQ)
+[Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
         </is>
       </c>
       <c r="O2" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hybrid cloud architect</t>
+          <t>cloud native security and consultant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,40 +522,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cloud native security and consultant</t>
+          <t>PS-GCC_Delivery_SA_IaC_DevSecOps_EMS_Obserability</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OPP000001</t>
+          <t>OPP000002</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45880</v>
+        <v>45887</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No Job Description Uploaded</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETQcLr4OS69Pl_YufBpUnYwBX7Qbuf4TpN-Cm4zttyJASQ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bengaluru</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10-15 years</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>open</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>immediate</t>
+          <t>immediate to 30 days</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,28 +563,16 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[Prachi Kakade_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWfvt-M-EXhLpyveIxn170EB53G_BlR-ErLeWsc9SkYltg)
-[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)
-[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)
-[Suresh B. Lalge_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERSPM05I_yBOs0LGEV4FP3QBa5ZarTpN9RWCnTUs2oboIQ)
-[Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" s="2" t="n">
         <v>45887</v>
       </c>
@@ -600,20 +585,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PS-GCC_Delivery_SA_IaC_DevSecOps_EMS_Obserability</t>
+          <t>Hybrid Cloud Architect</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OPP000002</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>45887</v>
+          <t>OPP000003</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45870</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETQcLr4OS69Pl_YufBpUnYwBX7Qbuf4TpN-Cm4zttyJASQ</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed3sRB-IX9NKpEqnyqKfd7cBztU75KJCNRdJHHOCf8aAgg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -628,7 +613,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>3L</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -648,10 +633,10 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -663,20 +648,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hybrid Cloud Architect</t>
+          <t>Cloud Native &amp; App Security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OPP000003</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>45870</v>
+          <t>OPP000004</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed3sRB-IX9NKpEqnyqKfd7cBztU75KJCNRdJHHOCf8aAgg</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ES4YKLxqIgxBpTnNEPtwEwIB_MhBrwOvgjNNy99bSlXF3A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -684,19 +669,11 @@
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10-15 years</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>3L</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>immediate to 30 days</t>
+          <t>immediate - 30 days</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -711,10 +688,14 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -726,32 +707,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cloud Native &amp; App Security</t>
+          <t>Full stack Dot net developer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OPP000004</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+          <t>OPP000005</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ES4YKLxqIgxBpTnNEPtwEwIB_MhBrwOvgjNNy99bSlXF3A</t>
+          <t>No Job Description Uploaded</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-5 years</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>immediate - 30 days</t>
+          <t>immediate to 30 days</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -766,14 +751,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -785,20 +766,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Full stack Dot net developer</t>
+          <t xml:space="preserve">Cloud Native  Security Consultant </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OPP000005</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+          <t>OPP000006</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No Job Description Uploaded</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,10 +789,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3-5 years</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>10-15 yrs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -829,73 +814,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="3" t="n">
-        <v>45887</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KPMG</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cloud Native  Security Consultant </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>OPP000006</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>45887</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10-15 yrs</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>immediate to 30 days</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45889</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -593,7 +596,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +606,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -626,7 +629,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Open</t>
@@ -635,8 +642,16 @@
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" s="2" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)
+[Deepak Misal_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESLjiCM15XxDhfCun3jCCpkB1_FHZagiajijpR13IRWYTw)
+[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)
+[Suresh B. Lalge_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERSPM05I_yBOs0LGEV4FP3QBa5ZarTpN9RWCnTUs2oboIQ)
+[Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +593,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,11 +626,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>Open</t>
@@ -651,7 +644,7 @@
 [Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -663,12 +656,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cloud Native &amp; App Security</t>
+          <t>Full stack Dot net developer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OPP000004</t>
+          <t>OPP000005</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -676,19 +669,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ES4YKLxqIgxBpTnNEPtwEwIB_MhBrwOvgjNNy99bSlXF3A</t>
+          <t>No Job Description Uploaded</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-5 years</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>immediate - 30 days</t>
+          <t>immediate to 30 days</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -703,13 +700,9 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[Shiva Gajula_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EViLj4_JAxlJqVoZDjRQbyQBRtVd0MGVGrZyKmQDmZmgJw)</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">
         <v>45887</v>
       </c>
@@ -722,12 +715,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Full stack Dot net developer</t>
+          <t xml:space="preserve">Cloud Native  Security Consultant </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OPP000005</t>
+          <t>OPP000006</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -735,7 +728,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No Job Description Uploaded</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -745,10 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3-5 years</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>10-15 yrs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -766,73 +763,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" s="2" t="n">
-        <v>45887</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KPMG</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cloud Native  Security Consultant </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OPP000006</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10-15 yrs</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>immediate to 30 days</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" s="2" t="n">
         <v>45889</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -723,7 +726,7 @@
           <t>OPP000006</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -756,7 +759,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -765,8 +772,12 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" s="2" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>45889</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -703,7 +700,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" s="2" t="n">
@@ -726,7 +723,7 @@
           <t>OPP000006</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -759,11 +756,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -777,7 +770,7 @@
           <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>45889</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -664,7 +667,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -682,7 +685,11 @@
           <t>3-5 years</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -693,17 +700,25 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -667,7 +664,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -685,11 +682,7 @@
           <t>3-5 years</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -700,25 +693,21 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -664,7 +667,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -682,7 +685,11 @@
           <t>3-5 years</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -693,21 +700,27 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="n">
+          <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)
+[BEJUGAM SHIVA KUMAR_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETE-3qH79WhKmC78vmsMl-ABD5b-x8OnFETyYNmCEUqOfA)
+[Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -667,7 +664,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -685,11 +682,7 @@
           <t>3-5 years</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -700,18 +693,14 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -720,7 +709,7 @@
 [Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>45887</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +783,69 @@
         <v>45889</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Technical Consultant-.Net Core Biztalk</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPP000007</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-8 yrs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" s="3" t="n">
+        <v>45897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -799,7 +796,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -839,10 +836,10 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45897</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -563,16 +566,25 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[Niveda Veeramani_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ)
+[Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="n">
         <v>45887</v>
       </c>
@@ -593,7 +605,7 @@
           <t>OPP000003</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -644,7 +656,7 @@
 [Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
         </is>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -664,7 +676,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -709,7 +721,7 @@
 [Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
         </is>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -729,7 +741,7 @@
           <t>OPP000006</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -776,7 +788,7 @@
           <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
         </is>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -796,7 +808,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -839,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>45897</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,25 +522,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PS-GCC_Delivery_SA_IaC_DevSecOps_EMS_Obserability</t>
+          <t>Hybrid Cloud Architect</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OPP000002</t>
+          <t>OPP000003</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45887</v>
+        <v>45870</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETQcLr4OS69Pl_YufBpUnYwBX7Qbuf4TpN-Cm4zttyJASQ</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed3sRB-IX9NKpEqnyqKfd7cBztU75KJCNRdJHHOCf8aAgg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bengaluru</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -553,7 +550,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>3L</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -566,88 +563,16 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N2" t="inlineStr">
-        <is>
-          <t>[Niveda Veeramani_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ)
-[Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45887</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KPMG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hybrid Cloud Architect</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OPP000003</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>45870</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/Ed3sRB-IX9NKpEqnyqKfd7cBztU75KJCNRdJHHOCf8aAgg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10-15 years</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3L</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>immediate to 30 days</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>6</v>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t>[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)
 [Deepak Misal_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESLjiCM15XxDhfCun3jCCpkB1_FHZagiajijpR13IRWYTw)
@@ -656,7 +581,72 @@
 [Swapnil B Kondvilkar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfRPW83kzz9Hq3kEoxGwIdoBTpWRVUoK3i8efFZnVeGcng)</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O2" s="2" t="n">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Full stack Dot net developer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPP000005</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-5 years</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)
+[BEJUGAM SHIVA KUMAR_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETE-3qH79WhKmC78vmsMl-ABD5b-x8OnFETyYNmCEUqOfA)
+[Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -668,20 +658,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Full stack Dot net developer</t>
+          <t xml:space="preserve">Cloud Native  Security Consultant </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OPP000005</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+          <t>OPP000006</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No Job Description Uploaded</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -691,10 +681,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3-5 years</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>10-15 yrs</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>immediate to 30 days</t>
@@ -712,17 +706,15 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[Mohamed Arsath_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWJo9co0Yy9Dv9IcHRKSECIB-_MlfYsdr0luqRvZqlfEug)
-[BEJUGAM SHIVA KUMAR_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETE-3qH79WhKmC78vmsMl-ABD5b-x8OnFETyYNmCEUqOfA)
-[Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>45887</v>
+          <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>45889</v>
       </c>
     </row>
     <row r="5">
@@ -733,20 +725,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Native  Security Consultant </t>
+          <t>Technical Consultant-.Net Core Biztalk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OPP000006</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>45887</v>
+          <t>OPP000007</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45897</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EQ57wk1pgd9Jhytnsboa-Z4Bd3lRIL1kVbJmQsof2B0MUg</t>
+          <t>No Job Description Uploaded</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -756,12 +748,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10-15 yrs</t>
+          <t>3-8 yrs</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -781,77 +773,10 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KPMG</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Technical Consultant-.Net Core Biztalk</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OPP000007</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>45897</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No Job Description Uploaded</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3-8 yrs</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>immediate to 30 days</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" s="3" t="n">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" s="2" t="n">
         <v>45897</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -733,7 +736,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -766,7 +769,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -775,8 +782,13 @@
       <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" s="2" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[Niveda Veeramani_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUEN9fy7MqFOnSTvivp4LhsBQ-0HTcKn39UrrzydeuwNPQ)
+[Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n">
         <v>45897</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -769,11 +769,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>Open</t>
@@ -788,8 +784,71 @@
 [Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>45897</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VM ware Resident Engineer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPP000008</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45903</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5-8 years</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.5 lakh - 1.8 lakh PM</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>immediate joiners to 30 days</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" s="3" t="n">
+        <v>45903</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,7 +804,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,7 +847,70 @@
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LnT Cloud</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hybrid Cloud Architect</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OPP000009</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESYE1u38fp5Ahg27KwcFfr4BvH9Vjg6FBXHpG67TnDkzCQ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8-12 yrs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,7 +867,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -910,7 +910,70 @@
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KPMG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OPP000010</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERr6AW6A4FBFq49gunLTv2oBKsMBp5Fe0sGLO-nHTDo72w</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5-7 yrs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -844,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">
@@ -930,7 +927,7 @@
           <t>OPP000010</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -973,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="2" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -856,7 +859,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hybrid Cloud Architect</t>
+          <t>Hybrid Cloud Solution Architect</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -864,7 +867,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -897,7 +900,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Open</t>
@@ -907,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -867,7 +864,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -900,21 +897,17 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +977,69 @@
         <v>45903</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Salesforce QA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OPP000011</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>45902</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ER8QjMeeBIZNgTLqZlYWap4Bu0m5TrWCS9kA86UnJxDO5Q</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3 yrs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>10 lakh</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" s="3" t="n">
+        <v>45903</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -993,7 +990,7 @@
           <t>OPP000011</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1033,10 +1030,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="2" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1040,69 @@
         <v>45903</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cloud Era</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sr. Solution Architect</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPP000012</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>45904</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EWndU8dNTV5CoLu_327fJIQBIrcy9SxzNwi8W3JPbXOCkQ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>8-15 yrs</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>45 lakh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" s="3" t="n">
+        <v>45904</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1056,7 +1053,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1096,10 +1093,10 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -801,7 +804,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -834,17 +837,25 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[Dinesh Soni_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg)</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -804,7 +801,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -837,25 +834,21 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>[Dinesh Soni_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg)</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -868,7 +871,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -901,17 +904,25 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -871,7 +871,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -904,11 +904,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>Open</t>
@@ -922,7 +918,7 @@
           <t>[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)</t>
         </is>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1005,7 +1001,7 @@
           <t>OPP000011</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1038,17 +1034,21 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1001,7 +1001,7 @@
           <t>OPP000011</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1034,11 +1034,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -1048,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1068,7 +1064,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1101,17 +1097,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[Subhajit Raha_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETMT7xmVlMFGrFPy_hhj0VMBbU8gHslwoQcWeppzH_Yf8w)
+[kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -804,7 +804,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -837,21 +837,27 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[Dinesh Soni_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg)</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="n">
+          <t>[Dinesh Soni_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg)
+[Sourabh Singh_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERMX3XWJEDRIk89NeCFZmYUBlsfdoNYIcwQ9QQVRXsp9uw)
+[Jhanvi Patil_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZqIrqyzRdVFpyS-oGYiMmIBZ_GI4YK274-mlECb7exoHg)</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1064,7 +1070,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1097,11 +1103,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -1116,7 +1118,7 @@
 [kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -804,7 +801,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -837,18 +834,14 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -857,7 +850,7 @@
 [Jhanvi Patil_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZqIrqyzRdVFpyS-oGYiMmIBZ_GI4YK274-mlECb7exoHg)</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45903</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1063,7 +1066,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1096,10 +1099,14 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1111,7 +1118,7 @@
 [kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)</t>
         </is>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1066,7 +1063,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1099,18 +1096,14 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1118,7 +1111,7 @@
 [kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1063,7 +1066,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1096,7 +1099,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Open</t>
@@ -1108,10 +1115,11 @@
       <c r="N10" t="inlineStr">
         <is>
           <t>[Subhajit Raha_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ETMT7xmVlMFGrFPy_hhj0VMBbU8gHslwoQcWeppzH_Yf8w)
-[kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="n">
+[kljhu Arindam Mukherjee_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EfL4R51598BJs4IMabN9IGYBLVjeO0eRlgbZXjvc4gb7ZA)
+[Susanta Kanrar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERl5KziZvtVMkbwl-0JzDIgBwqS8VgpGd6p0IL5shY7pGg)</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -804,7 +804,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -837,23 +837,28 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>[Dinesh Soni_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcTkmKknGRxKsUAvwLfyUywBUNkHgDP0ZR5o2ykapbSeVg)
 [Sourabh Singh_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERMX3XWJEDRIk89NeCFZmYUBlsfdoNYIcwQ9QQVRXsp9uw)
-[Jhanvi Patil_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZqIrqyzRdVFpyS-oGYiMmIBZ_GI4YK274-mlECb7exoHg)</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="n">
+[Jhanvi Patil_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZqIrqyzRdVFpyS-oGYiMmIBZ_GI4YK274-mlECb7exoHg)
+[Anand Moharir_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUpbq0QQ0Z5FoC3wohvGa0IBAqYdE2Pdgor8o3DeP7Xk-A)</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1066,7 +1071,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1099,11 +1104,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>Open</t>
@@ -1119,7 +1120,7 @@
 [Susanta Kanrar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERl5KziZvtVMkbwl-0JzDIgBwqS8VgpGd6p0IL5shY7pGg)</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>45904</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -804,7 +801,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -837,11 +834,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>Open</t>
@@ -858,7 +851,7 @@
 [Anand Moharir_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUpbq0QQ0Z5FoC3wohvGa0IBAqYdE2Pdgor8o3DeP7Xk-A)</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -918,7 +911,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1120,69 @@
         <v>45904</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nutanix</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vmware and Nutanix Architect</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OPP000013</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mumbai and Bangalore</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-5 years</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>upto 10 lpa</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>immediate joiners to 30 days</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" s="3" t="n">
+        <v>45918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,7 +1136,7 @@
           <t>OPP000013</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1179,7 +1179,70 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="2" t="n">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L&amp;T</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AI Cloud Architect</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OPP000014</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EdaDhjEKNJFNgbA3UU8o4qsBumVCgkzfoyZgi-MZ2JXNyA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8+ yrs</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>35-40 lpa</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" s="3" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1199,7 +1196,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1239,10 +1236,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1246,69 @@
         <v>45918</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Galaxy Automation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OPP000015</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>45918</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7-12 yrs</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" s="3" t="n">
+        <v>45918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1262,7 +1259,7 @@
           <t>OPP000015</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1302,10 +1299,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="2" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1196,7 +1199,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1229,17 +1232,25 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1199,7 +1196,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1232,11 +1229,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Open</t>
@@ -1250,7 +1243,7 @@
           <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
         </is>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1183,7 +1186,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
+          <t>LnT Cloud</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1196,7 +1199,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1229,7 +1232,11 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Open</t>
@@ -1243,7 +1250,7 @@
           <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
         </is>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -874,7 +874,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -907,21 +907,26 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="n">
+          <t>[JAGADISH UTTARKABAT_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESbwH35afrVAqGK9vqDw_BgBJPu97xPQjYAnB0gbeGEeJw)
+[Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1199,7 +1204,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1232,11 +1237,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>Open</t>
@@ -1250,7 +1251,7 @@
           <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
         </is>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -520,7 +520,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KPMG</t>
+          <t>LnT Cloud</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -566,14 +566,18 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -585,7 +589,7 @@
         </is>
       </c>
       <c r="O2" s="2" t="n">
-        <v>45887</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +608,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -649,7 +653,7 @@
 [Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
         </is>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="3" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -669,7 +673,7 @@
           <t>OPP000006</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -716,7 +720,7 @@
           <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
         </is>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="3" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -736,7 +740,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -784,7 +788,7 @@
 [Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
         </is>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="3" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -804,7 +808,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -854,7 +858,7 @@
 [Anand Moharir_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUpbq0QQ0Z5FoC3wohvGa0IBAqYdE2Pdgor8o3DeP7Xk-A)</t>
         </is>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -907,11 +911,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -946,7 +946,7 @@
           <t>OPP000010</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
           <t>OPP000011</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>45902</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="3" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1121,7 +1121,7 @@
 [Susanta Kanrar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERl5KziZvtVMkbwl-0JzDIgBwqS8VgpGd6p0IL5shY7pGg)</t>
         </is>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="3" t="n">
         <v>45904</v>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
           <t>OPP000013</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="3" t="n">
         <v>45918</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1251,7 +1251,7 @@
           <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
         </is>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="3" t="n">
         <v>45918</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
           <t>OPP000015</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>45918</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="3" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="M2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -566,11 +563,7 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -608,7 +601,7 @@
           <t>OPP000005</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -653,7 +646,7 @@
 [Vaishnavi Sekar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EXFq7I_uAnREtFUynQ5Ez6cBzOWWAKKdrZhKZIdEDvh0Wg)</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>45887</v>
       </c>
     </row>
@@ -673,7 +666,7 @@
           <t>OPP000006</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -720,7 +713,7 @@
           <t>[Md Afroz Quadri _resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ESvoANnnF-FPrJalGLi02ssBAw2iWPPeAvH3LILYjThurA)</t>
         </is>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="2" t="n">
         <v>45889</v>
       </c>
     </row>
@@ -740,7 +733,7 @@
           <t>OPP000007</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -788,7 +781,7 @@
 [Raju Pudhari_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EcrxK70t2AZAjlVlI0GaF9sB09DiUZvRgQoRbIWNYqdLyQ)</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="2" t="n">
         <v>45897</v>
       </c>
     </row>
@@ -808,7 +801,7 @@
           <t>OPP000008</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -858,7 +851,7 @@
 [Anand Moharir_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EUpbq0QQ0Z5FoC3wohvGa0IBAqYdE2Pdgor8o3DeP7Xk-A)</t>
         </is>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -878,7 +871,7 @@
           <t>OPP000009</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -926,7 +919,7 @@
 [Vivek Tellis_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EZ0_n_TQHKtCl7nr73nmxVsBB9x9BEed4STR5h3Sydi5dQ)</t>
         </is>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -946,7 +939,7 @@
           <t>OPP000010</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -989,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1009,7 +1002,7 @@
           <t>OPP000011</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1052,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="2" t="n">
         <v>45903</v>
       </c>
     </row>
@@ -1072,7 +1065,7 @@
           <t>OPP000012</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1121,7 +1114,7 @@
 [Susanta Kanrar_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/ERl5KziZvtVMkbwl-0JzDIgBwqS8VgpGd6p0IL5shY7pGg)</t>
         </is>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="2" t="n">
         <v>45904</v>
       </c>
     </row>
@@ -1141,7 +1134,7 @@
           <t>OPP000013</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1184,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="2" t="n">
         <v>45918</v>
       </c>
     </row>
@@ -1204,7 +1197,7 @@
           <t>OPP000014</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1251,7 +1244,7 @@
           <t>[Atul Panmand_resume](https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EShiXdb3dE9BpjmiFvH7zKUBgi8-K788tEUlMr74tUKp3Q)</t>
         </is>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>45918</v>
       </c>
     </row>
@@ -1271,7 +1264,7 @@
           <t>OPP000015</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1311,10 +1304,10 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="2" t="n">
         <v>45918</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,6 +1314,69 @@
         <v>45918</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Galaxy Automation Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Presales Solution Architect</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OPP000016</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6-12 yrs</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" s="3" t="n">
+        <v>45923</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,7 +1330,7 @@
           <t>OPP000016</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -1373,7 +1373,70 @@
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="2" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Galaxy Automation Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Networking and Security Presales Engineer</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OPP000017</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>45923</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No Job Description Uploaded</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9 years and above</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.5 lpa - 2.1 lpa</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>immediate to 30 days</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" s="3" t="n">
         <v>45923</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1370,7 +1367,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" s="2" t="n">
@@ -1393,7 +1390,7 @@
           <t>OPP000017</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="2" t="n">
         <v>45923</v>
       </c>
     </row>

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" s="2" t="n">

--- a/excel_files/opportunities.xlsx
+++ b/excel_files/opportunities.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1390,12 +1393,12 @@
           <t>OPP000017</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>45923</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No Job Description Uploaded</t>
+          <t>https://sunfinitytechnologysolution-my.sharepoint.com/:b:/g/personal/tech_support_sunfinity_tech/EaeIEX60rBNKqe0QQja5_bkBhrNbaolS9rg1gQGj4WfB7A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1423,17 +1426,21 @@
           <t>High</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>45923</v>
       </c>
     </row>
